--- a/document/20210119_coupang_change.xlsx
+++ b/document/20210119_coupang_change.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\project\CMW_V2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6BA707-E391-4286-9A32-2D2C46B8E079}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1DCC90-3D82-406D-A453-C9F91DB23AB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0957EC28-713C-4391-AB94-6CCD9C993B03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0957EC28-713C-4391-AB94-6CCD9C993B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -864,22 +864,22 @@
   <dimension ref="B1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="2.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.09765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.4">
       <c r="H1" t="s">
         <v>18</v>
       </c>
@@ -887,7 +887,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -922,7 +922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -955,7 +955,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -988,7 +988,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>18000</v>
+        <v>19800</v>
       </c>
       <c r="G6" s="1">
         <v>100</v>
@@ -1054,7 +1054,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>18000</v>
+        <v>20400</v>
       </c>
       <c r="G7" s="1">
         <v>100</v>
@@ -1087,7 +1087,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -1257,7 +1257,9 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>15000</v>
+      </c>
       <c r="G13" s="1">
         <v>100</v>
       </c>
@@ -1275,7 +1277,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B14" s="3">
         <v>12</v>
       </c>
@@ -1288,7 +1290,9 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>20700</v>
+      </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
@@ -1306,7 +1310,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" s="3">
         <v>13</v>
       </c>
@@ -1331,7 +1335,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B16" s="3">
         <v>14</v>
       </c>
@@ -1356,7 +1360,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1369,7 +1373,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1382,7 +1386,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1395,7 +1399,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1408,7 +1412,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1421,7 +1425,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1434,7 +1438,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1447,7 +1451,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1460,7 +1464,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1473,7 +1477,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1486,7 +1490,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B27" s="3"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1499,7 +1503,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B28" s="3"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1512,7 +1516,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B29" s="3"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1525,7 +1529,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B30" s="3"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1538,7 +1542,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B31" s="3"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1566,19 +1570,19 @@
       <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="I3" t="s">
         <v>12</v>
       </c>
@@ -1589,7 +1593,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>21</v>
       </c>
@@ -1606,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>22</v>
       </c>
@@ -1623,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -1640,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>24</v>
       </c>
@@ -1657,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -1674,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -1691,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>27</v>
       </c>
@@ -1708,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>28</v>
       </c>
@@ -1725,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>29</v>
       </c>
@@ -1742,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>30</v>
       </c>
@@ -1759,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -1776,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>32</v>
       </c>
@@ -1793,7 +1797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="H16" s="1" t="s">
         <v>52</v>
       </c>
@@ -1804,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H17" s="1" t="s">
         <v>53</v>
       </c>
@@ -1815,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H18" s="1" t="s">
         <v>54</v>
       </c>
@@ -1826,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H19" s="1" t="s">
         <v>55</v>
       </c>
@@ -1837,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H20" s="1" t="s">
         <v>56</v>
       </c>
@@ -1848,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1859,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H22" s="1" t="s">
         <v>57</v>
       </c>
@@ -1870,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H23" s="1" t="s">
         <v>58</v>
       </c>
@@ -1881,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H24" s="1" t="s">
         <v>59</v>
       </c>
@@ -1892,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H25" s="1" t="s">
         <v>60</v>
       </c>
@@ -1903,7 +1907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H26" s="1" t="s">
         <v>61</v>
       </c>
@@ -1914,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H27" s="1" t="s">
         <v>62</v>
       </c>
@@ -1925,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H28" s="1" t="s">
         <v>63</v>
       </c>
@@ -1936,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H29" s="1" t="s">
         <v>15</v>
       </c>
@@ -1947,7 +1951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H30" s="1" t="s">
         <v>64</v>
       </c>
@@ -1958,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H31" s="1" t="s">
         <v>65</v>
       </c>
@@ -1972,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H32" s="1" t="s">
         <v>66</v>
       </c>
@@ -1983,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H33" s="1" t="s">
         <v>67</v>
       </c>
@@ -1994,7 +1998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H34" s="1" t="s">
         <v>68</v>
       </c>
@@ -2005,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H35" s="1" t="s">
         <v>69</v>
       </c>
@@ -2016,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H36" s="1" t="s">
         <v>70</v>
       </c>
@@ -2027,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H37" s="1" t="s">
         <v>71</v>
       </c>
@@ -2038,7 +2042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H38" s="1" t="s">
         <v>72</v>
       </c>
@@ -2049,7 +2053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H39" s="1" t="s">
         <v>73</v>
       </c>
@@ -2060,7 +2064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H40" s="1" t="s">
         <v>74</v>
       </c>
@@ -2071,7 +2075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H41" s="1" t="s">
         <v>75</v>
       </c>
@@ -2082,7 +2086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H42" s="1" t="s">
         <v>76</v>
       </c>
@@ -2093,7 +2097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H43" s="1" t="s">
         <v>77</v>
       </c>
@@ -2104,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H44" s="1" t="s">
         <v>78</v>
       </c>
@@ -2115,7 +2119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H45" s="1" t="s">
         <v>80</v>
       </c>
@@ -2126,7 +2130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H46" s="1" t="s">
         <v>81</v>
       </c>
@@ -2137,7 +2141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H47" s="1" t="s">
         <v>82</v>
       </c>
@@ -2148,7 +2152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H48" s="1" t="s">
         <v>83</v>
       </c>
@@ -2159,7 +2163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H49" s="1" t="s">
         <v>84</v>
       </c>
@@ -2170,7 +2174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H50" s="1" t="s">
         <v>85</v>
       </c>
@@ -2181,7 +2185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H51" s="1" t="s">
         <v>86</v>
       </c>
@@ -2192,7 +2196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H52" s="1" t="s">
         <v>87</v>
       </c>
@@ -2203,7 +2207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H53" s="1" t="s">
         <v>88</v>
       </c>
@@ -2214,7 +2218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H54" s="5" t="s">
         <v>21</v>
       </c>
@@ -2225,7 +2229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H55" s="5" t="s">
         <v>22</v>
       </c>
@@ -2236,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H56" s="5" t="s">
         <v>23</v>
       </c>
@@ -2247,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H57" s="5" t="s">
         <v>24</v>
       </c>
@@ -2258,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H58" s="5" t="s">
         <v>25</v>
       </c>
@@ -2269,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H59" s="5" t="s">
         <v>26</v>
       </c>
@@ -2280,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H60" s="5" t="s">
         <v>27</v>
       </c>
@@ -2291,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H61" s="5" t="s">
         <v>28</v>
       </c>
@@ -2302,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H62" s="5" t="s">
         <v>29</v>
       </c>
@@ -2313,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H63" s="5" t="s">
         <v>30</v>
       </c>
@@ -2324,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H64" s="5" t="s">
         <v>31</v>
       </c>
@@ -2338,7 +2342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H65" s="5" t="s">
         <v>32</v>
       </c>
@@ -2349,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H66" s="5" t="s">
         <v>20</v>
       </c>
@@ -2360,7 +2364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H67" s="5" t="s">
         <v>33</v>
       </c>
@@ -2371,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H68" s="5" t="s">
         <v>34</v>
       </c>
@@ -2382,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H69" s="5" t="s">
         <v>35</v>
       </c>
@@ -2393,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H70" s="5" t="s">
         <v>36</v>
       </c>
@@ -2404,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H71" s="5" t="s">
         <v>37</v>
       </c>
@@ -2415,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H72" s="5" t="s">
         <v>38</v>
       </c>
@@ -2426,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H73" s="5" t="s">
         <v>39</v>
       </c>
@@ -2440,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H74" s="5" t="s">
         <v>40</v>
       </c>
@@ -2451,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H75" s="5" t="s">
         <v>41</v>
       </c>
@@ -2462,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H76" s="5" t="s">
         <v>42</v>
       </c>
@@ -2476,7 +2480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="8:11" x14ac:dyDescent="0.4">
       <c r="H77" s="5" t="s">
         <v>43</v>
       </c>

--- a/document/20210119_coupang_change.xlsx
+++ b/document/20210119_coupang_change.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\project\CMW_V2\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1DCC90-3D82-406D-A453-C9F91DB23AB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DCCABB-D1CB-4E4C-AD40-620770C31F6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0957EC28-713C-4391-AB94-6CCD9C993B03}"/>
+    <workbookView xWindow="-21720" yWindow="915" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{0957EC28-713C-4391-AB94-6CCD9C993B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -863,23 +863,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECB5EFF-7CFE-401E-9022-A76867444D8F}">
   <dimension ref="B1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="2.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H1" t="s">
         <v>18</v>
       </c>
@@ -887,7 +887,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -922,7 +922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -955,7 +955,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -988,7 +988,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>12</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>13</v>
       </c>
@@ -1335,7 +1335,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>14</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1373,7 +1373,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1386,7 +1386,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1399,7 +1399,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1412,7 +1412,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1425,7 +1425,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1438,7 +1438,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1451,7 +1451,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1464,7 +1464,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1477,7 +1477,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1490,7 +1490,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1503,7 +1503,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1516,7 +1516,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1529,7 +1529,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1542,7 +1542,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1564,25 +1564,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650FEA28-B401-448D-8D0B-86039261E68A}">
-  <dimension ref="B2:K77"/>
+  <dimension ref="B2:O58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I3" t="s">
         <v>12</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>21</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I4">
         <v>12</v>
@@ -1609,16 +1609,25 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>44</v>
+      <c r="H5" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="I5">
         <v>12</v>
@@ -1626,16 +1635,25 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>45</v>
+      <c r="H6" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="I6">
         <v>12</v>
@@ -1643,8 +1661,17 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>24</v>
       </c>
@@ -1652,7 +1679,7 @@
         <v>35</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="I7">
         <v>12</v>
@@ -1660,8 +1687,20 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>11</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -1669,7 +1708,7 @@
         <v>36</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I8">
         <v>12</v>
@@ -1677,16 +1716,25 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>23</v>
+      <c r="H9" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="I9">
         <v>12</v>
@@ -1694,8 +1742,17 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>27</v>
       </c>
@@ -1703,7 +1760,7 @@
         <v>38</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I10">
         <v>12</v>
@@ -1711,16 +1768,25 @@
       <c r="J10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="E11" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>48</v>
+      <c r="H11" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="I11">
         <v>12</v>
@@ -1728,8 +1794,17 @@
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>29</v>
       </c>
@@ -1737,7 +1812,7 @@
         <v>40</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="I12">
         <v>12</v>
@@ -1745,8 +1820,17 @@
       <c r="J12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>30</v>
       </c>
@@ -1754,7 +1838,7 @@
         <v>41</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I13">
         <v>12</v>
@@ -1762,8 +1846,17 @@
       <c r="J13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -1771,7 +1864,7 @@
         <v>42</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I14">
         <v>12</v>
@@ -1779,8 +1872,17 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>32</v>
       </c>
@@ -1788,40 +1890,73 @@
         <v>43</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I15">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16">
         <v>10</v>
       </c>
-      <c r="J15">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="H16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16">
-        <v>12</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H17" s="1" t="s">
-        <v>53</v>
+      <c r="L16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H17" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="I17">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H18" s="1" t="s">
-        <v>54</v>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H18" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="I18">
         <v>12</v>
@@ -1829,30 +1964,57 @@
       <c r="J18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H19" s="1" t="s">
+      <c r="L18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19">
+        <v>12</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I19">
-        <v>12</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H20" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="I20">
         <v>12</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="L20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1862,376 +2024,394 @@
       <c r="J21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="L21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22">
+        <v>12</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I22">
-        <v>12</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H23" s="1" t="s">
+      <c r="I23">
+        <v>12</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I23">
-        <v>12</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H24" s="1" t="s">
+      <c r="I24">
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25">
+        <v>12</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26">
+        <v>12</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I24">
-        <v>12</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H25" s="1" t="s">
+      <c r="I27">
+        <v>12</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I25">
+      <c r="I28">
         <v>9</v>
       </c>
-      <c r="J25">
+      <c r="J28">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I26">
-        <v>12</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H27" s="1" t="s">
+    <row r="29" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29">
+        <v>12</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30">
+        <v>12</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31">
+        <v>11</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32">
+        <v>12</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33">
+        <v>12</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34">
+        <v>12</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35">
+        <v>11</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36">
+        <v>9</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37">
+        <v>12</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H38" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38">
+        <v>12</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39">
+        <v>12</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H40" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40">
+        <v>12</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H41" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41">
+        <v>12</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42">
+        <v>12</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H43" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I43">
+        <v>12</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44">
+        <v>12</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H45" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I27">
-        <v>12</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I28">
-        <v>12</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29">
-        <v>11</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I30">
-        <v>12</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>11</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I32">
-        <v>12</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I34">
-        <v>12</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I35">
-        <v>12</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H36" s="1" t="s">
+      <c r="I45">
+        <v>12</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H46" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I36">
-        <v>12</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H43" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I43">
-        <v>12</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H44" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H45" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H46" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="I46">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J46">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="8:10" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H47" s="1" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J47">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="8:10" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H48" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J48">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="8:11" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H49" s="1" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J49">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="8:11" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H50" s="1" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="I50">
+        <v>10</v>
+      </c>
+      <c r="J50">
         <v>2</v>
       </c>
-      <c r="J50">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="8:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H51" s="1" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J51">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H52" s="1" t="s">
-        <v>87</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H52" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J52">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="8:11" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H53" s="1" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J53">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="8:11" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H54" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J54">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H55" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H55" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I55">
         <v>12</v>
@@ -2240,9 +2420,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H56" s="5" t="s">
-        <v>23</v>
+    <row r="56" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H56" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="I56">
         <v>12</v>
@@ -2251,9 +2431,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="8:11" x14ac:dyDescent="0.4">
+    <row r="57" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H57" s="5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I57">
         <v>12</v>
@@ -2262,9 +2442,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="8:11" x14ac:dyDescent="0.4">
+    <row r="58" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H58" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I58">
         <v>12</v>
@@ -2273,225 +2453,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H59" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I59">
-        <v>12</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H60" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I60">
-        <v>12</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H61" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I61">
-        <v>12</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H62" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I62">
-        <v>12</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H63" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I63">
-        <v>12</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H64" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I64">
-        <v>10</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H65" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I65">
-        <v>12</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H66" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I66">
-        <v>9</v>
-      </c>
-      <c r="J66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H67" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I67">
-        <v>12</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H68" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I68">
-        <v>12</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H69" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I69">
-        <v>12</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H70" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I70">
-        <v>12</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H71" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I71">
-        <v>12</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H72" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I72">
-        <v>12</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H73" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I73">
-        <v>11</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H74" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I74">
-        <v>12</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H75" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I75">
-        <v>12</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H76" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I76">
-        <v>9</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="8:11" x14ac:dyDescent="0.4">
-      <c r="H77" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I77">
-        <v>12</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:K77">
+    <sortCondition ref="H4:H77"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/document/20210119_coupang_change.xlsx
+++ b/document/20210119_coupang_change.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\project\CMW_V2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DCCABB-D1CB-4E4C-AD40-620770C31F6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A8FE92-F5EB-488E-A2E6-1A628F39E2C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="915" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{0957EC28-713C-4391-AB94-6CCD9C993B03}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0957EC28-713C-4391-AB94-6CCD9C993B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="122">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>꿈을이루는집 물에잘녹는 3겹 두루마리 휴지 순수 30롤 먼지없는 친환경 착한 노브랜드 두루말이 화장지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화장지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>두루마리휴지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>롤휴지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3겹 휴지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화장실 휴지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,10 +229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>휴지 30롤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>두루마리휴지 3겹 무형광</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -457,6 +441,66 @@
   </si>
   <si>
     <t>꿈을이루는집 2겹 대용량 꽃무늬 점보롤 티슈 16롤 공중화장실 업소용 화장지 휴지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대용량 점보롤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점보롤 티슈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공중화장실 휴지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공중화장실 화장지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업소용 휴지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업소용 화장지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대용량 휴지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대용량 화장지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대용량 티슈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2겹 점보롤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2겹 데코 점보롤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롤휴지 업소용 2겹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점보롤 2겹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점보롤 화장지 2겹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,6 +508,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -528,7 +575,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -544,8 +591,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,30 +920,30 @@
   <dimension ref="B1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="2.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.09765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.4">
       <c r="H1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" ht="17.25" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -922,15 +978,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -942,28 +998,28 @@
         <v>100</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -975,28 +1031,28 @@
         <v>100</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1008,28 +1064,28 @@
         <v>100</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1041,28 +1097,28 @@
         <v>100</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1074,28 +1130,28 @@
         <v>100</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1107,28 +1163,28 @@
         <v>100</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -1138,28 +1194,28 @@
         <v>100</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -1169,28 +1225,28 @@
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -1200,28 +1256,28 @@
         <v>100</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="3">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1231,28 +1287,28 @@
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -1264,28 +1320,28 @@
         <v>100</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B14" s="3">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1297,28 +1353,28 @@
         <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" s="3">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1328,22 +1384,22 @@
         <v>100</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B16" s="3">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1353,14 +1409,14 @@
         <v>100</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1373,7 +1429,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1386,7 +1442,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1399,7 +1455,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1412,7 +1468,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1425,7 +1481,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1438,7 +1494,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1451,7 +1507,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1464,7 +1520,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1477,7 +1533,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1490,7 +1546,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B27" s="3"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1503,7 +1559,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B28" s="3"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1516,7 +1572,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B29" s="3"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1529,7 +1585,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B30" s="3"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1542,7 +1598,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B31" s="3"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1564,900 +1620,1460 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650FEA28-B401-448D-8D0B-86039261E68A}">
-  <dimension ref="B2:O58"/>
+  <dimension ref="B2:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.09765625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="3.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.8984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="E2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>29</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>12</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="5">
+        <v>10028</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="4">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>37</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>12</v>
+      </c>
+      <c r="N4" s="5">
+        <v>10150</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="4">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>154</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>12</v>
+      </c>
+      <c r="N5" s="5">
+        <v>36747</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="4">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>154</v>
+      </c>
+      <c r="I6" s="4">
+        <v>4</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>12</v>
+      </c>
+      <c r="N6" s="5">
+        <v>80085</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>937</v>
+      </c>
+      <c r="I7" s="4">
+        <v>5</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>12</v>
+      </c>
+      <c r="N7" s="5">
+        <v>80085</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1577</v>
+      </c>
+      <c r="I8" s="4">
+        <v>6</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>12</v>
+      </c>
+      <c r="N8" s="5">
+        <v>80085</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2099</v>
+      </c>
+      <c r="I9" s="4">
+        <v>7</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>12</v>
+      </c>
+      <c r="N9" s="5">
+        <v>89960</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="4">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3105</v>
+      </c>
+      <c r="I10" s="4">
+        <v>8</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>11</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>6350</v>
+      </c>
+      <c r="I11" s="4">
+        <v>9</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4">
+        <v>11</v>
+      </c>
+      <c r="N11" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="4">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>6350</v>
+      </c>
+      <c r="I12" s="4">
+        <v>10</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
+        <v>11</v>
+      </c>
+      <c r="N12" s="5">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="4">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>7255</v>
+      </c>
+      <c r="I13" s="4">
+        <v>11</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4">
+        <v>11</v>
+      </c>
+      <c r="N13" s="5">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B14" s="4">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>14014</v>
+      </c>
+      <c r="I14" s="4">
+        <v>12</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
+        <v>11</v>
+      </c>
+      <c r="N14" s="5">
+        <v>8450</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B15" s="4">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="4">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>14014</v>
+      </c>
+      <c r="I15" s="4">
+        <v>13</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4">
+        <v>11</v>
+      </c>
+      <c r="N15" s="5">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B16" s="4">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="4">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>27349</v>
+      </c>
+      <c r="I16" s="4">
+        <v>14</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K16" s="4">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <v>11</v>
+      </c>
+      <c r="N16" s="5">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B17" s="4">
+        <v>15</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="4">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>27349</v>
+      </c>
+      <c r="I17" s="4">
+        <v>15</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4">
+        <v>11</v>
+      </c>
+      <c r="N17" s="5">
+        <v>10028</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B18" s="4">
+        <v>16</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="4">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>27349</v>
+      </c>
+      <c r="I18" s="4">
+        <v>16</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4">
+        <v>11</v>
+      </c>
+      <c r="N18" s="5">
+        <v>17298</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B19" s="4">
+        <v>17</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="4">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>27349</v>
+      </c>
+      <c r="I19" s="4">
+        <v>17</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+      <c r="K19" s="4">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4">
+        <v>11</v>
+      </c>
+      <c r="N19" s="5">
+        <v>31849</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B20" s="4">
+        <v>18</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="4">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>32661</v>
+      </c>
+      <c r="I20" s="4">
+        <v>18</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4">
+        <v>11</v>
+      </c>
+      <c r="N20" s="5">
+        <v>80085</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B21" s="4">
+        <v>19</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="4">
+        <v>12</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>38215</v>
+      </c>
+      <c r="I21" s="4">
+        <v>19</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" s="4">
+        <v>2</v>
+      </c>
+      <c r="L21" s="4">
+        <v>7</v>
+      </c>
+      <c r="N21" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B22" s="4">
+        <v>20</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="4">
+        <v>12</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>38215</v>
+      </c>
+      <c r="I22" s="4">
+        <v>20</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="4">
+        <v>9</v>
+      </c>
+      <c r="L22" s="4">
+        <v>2</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1</v>
+      </c>
+      <c r="N22" s="5">
+        <v>56376</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B23" s="4">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="4">
+        <v>12</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>38215</v>
+      </c>
+      <c r="I23" s="4">
+        <v>21</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K23" s="4">
+        <v>10</v>
+      </c>
+      <c r="L23" s="4">
+        <v>2</v>
+      </c>
+      <c r="N23" s="5">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B24" s="4">
+        <v>22</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4">
-        <v>12</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4">
+      <c r="D24" s="4">
+        <v>12</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>39557</v>
+      </c>
+      <c r="I24" s="4">
+        <v>22</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" s="4">
+        <v>9</v>
+      </c>
+      <c r="L24" s="4">
         <v>1</v>
       </c>
-      <c r="N4">
+      <c r="M24" s="4">
+        <v>2</v>
+      </c>
+      <c r="N24" s="5">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B25" s="4">
+        <v>23</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="4">
+        <v>12</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>39557</v>
+      </c>
+      <c r="I25" s="4">
+        <v>23</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+      <c r="L25" s="4">
+        <v>1</v>
+      </c>
+      <c r="N25" s="5">
+        <v>7468</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B26" s="4">
+        <v>24</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="4">
+        <v>12</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>39557</v>
+      </c>
+      <c r="I26" s="4">
+        <v>24</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K26" s="4">
+        <v>11</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1</v>
+      </c>
+      <c r="N26" s="5">
+        <v>56376</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B27" s="4">
+        <v>25</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="4">
+        <v>12</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>39557</v>
+      </c>
+      <c r="I27" s="4">
+        <v>25</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="K27" s="4">
+        <v>11</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1</v>
+      </c>
+      <c r="N27" s="5">
+        <v>56376</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B28" s="4">
+        <v>26</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="4">
+        <v>12</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>65922</v>
+      </c>
+      <c r="I28" s="4">
+        <v>26</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K28" s="4">
+        <v>10</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>2</v>
+      </c>
+      <c r="N28" s="5">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B29" s="4">
+        <v>27</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="4">
+        <v>12</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>65922</v>
+      </c>
+      <c r="I29" s="4">
+        <v>27</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="K29" s="4">
+        <v>11</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <v>1</v>
+      </c>
+      <c r="N29" s="5">
+        <v>78730</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B30" s="4">
+        <v>28</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D30" s="4">
+        <v>12</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>193110</v>
+      </c>
+      <c r="I30" s="4">
+        <v>28</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K30" s="4">
+        <v>11</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>1</v>
+      </c>
+      <c r="N30" s="5">
+        <v>78730</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B31" s="4">
+        <v>29</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5">
-        <v>12</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D31" s="4">
+        <v>12</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>193110</v>
+      </c>
+      <c r="I31" s="4">
+        <v>29</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K31" s="4">
+        <v>12</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0</v>
+      </c>
+      <c r="N31" s="5">
+        <v>13391</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B32" s="4">
+        <v>30</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="4">
+        <v>12</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1610581</v>
+      </c>
+      <c r="I32" s="4">
+        <v>30</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32" s="4">
+        <v>12</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="N32" s="5">
+        <v>18210</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B33" s="4">
+        <v>31</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="4">
+        <v>12</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1610581</v>
+      </c>
+      <c r="I33" s="4">
+        <v>31</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K33" s="4">
+        <v>12</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0</v>
+      </c>
+      <c r="N33" s="5">
+        <v>18331</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B34" s="4">
+        <v>32</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="4">
+        <v>11</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5">
+        <v>246135</v>
+      </c>
+      <c r="I34" s="4">
+        <v>32</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K34" s="4">
+        <v>12</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0</v>
+      </c>
+      <c r="N34" s="5">
+        <v>18331</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B35" s="4">
+        <v>33</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="4">
+        <v>11</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5">
+        <v>2099</v>
+      </c>
+      <c r="I35" s="4">
+        <v>33</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K35" s="4">
+        <v>12</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35" s="5">
+        <v>80085</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B36" s="4">
         <v>34</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="C36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="4">
+        <v>10</v>
+      </c>
+      <c r="E36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" s="5">
+        <v>502349</v>
+      </c>
+      <c r="I36" s="4">
+        <v>34</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K36" s="4">
+        <v>12</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0</v>
+      </c>
+      <c r="N36" s="5">
+        <v>80085</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B37" s="4">
+        <v>35</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="4">
+        <v>10</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1565</v>
+      </c>
+      <c r="I37" s="4">
+        <v>35</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37" s="4">
+        <v>12</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37" s="5">
+        <v>80085</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B38" s="4">
+        <v>36</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="4">
+        <v>9</v>
+      </c>
+      <c r="E38" s="4">
+        <v>3</v>
+      </c>
+      <c r="G38" s="5">
+        <v>748</v>
+      </c>
+      <c r="I38" s="4">
+        <v>36</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K38" s="4">
+        <v>12</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="5">
+        <v>18210</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B39" s="4">
+        <v>37</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="4">
+        <v>9</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3</v>
+      </c>
+      <c r="G39" s="5">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B40" s="4">
         <v>38</v>
       </c>
-      <c r="I6">
-        <v>12</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="C40" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="4">
+        <v>9</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>3</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C42" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="4">
+        <v>12</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C43" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="4">
+        <v>12</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C44" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="4">
+        <v>12</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C45" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="4">
+        <v>12</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
+        <v>3868</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C46" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="4">
+        <v>12</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5">
+        <v>6118</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C47" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="4">
+        <v>12</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5">
+        <v>8883</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C48" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="4">
+        <v>12</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5">
+        <v>11310</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C49" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="4">
+        <v>12</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5">
+        <v>15675</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C50" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I7">
-        <v>12</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>11</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8">
-        <v>12</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9">
-        <v>12</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="D50" s="4">
+        <v>12</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5">
+        <v>15675</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C51" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="4">
+        <v>12</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5">
+        <v>28149</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C52" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="4">
+        <v>12</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5">
+        <v>29880</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C53" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I10">
-        <v>12</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11">
-        <v>12</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12">
-        <v>12</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13">
-        <v>12</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14">
-        <v>12</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15">
-        <v>12</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="H16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16">
-        <v>10</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17">
-        <v>9</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18">
-        <v>12</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19">
-        <v>12</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20">
-        <v>12</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21">
-        <v>12</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22">
-        <v>12</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23">
-        <v>12</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I24">
-        <v>12</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I25">
-        <v>12</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I26">
-        <v>12</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I27">
-        <v>12</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I28">
-        <v>9</v>
-      </c>
-      <c r="J28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29">
-        <v>12</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30">
-        <v>12</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31">
-        <v>11</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I32">
-        <v>12</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I33">
-        <v>12</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34">
-        <v>12</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H35" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I35">
-        <v>11</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H36" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36">
-        <v>9</v>
-      </c>
-      <c r="J36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H37" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I37">
-        <v>12</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H38" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I38">
-        <v>12</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39">
-        <v>12</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H40" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I40">
-        <v>12</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H41" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I41">
-        <v>12</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H42" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42">
-        <v>12</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H43" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I43">
-        <v>12</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I44">
-        <v>12</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I45">
-        <v>12</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I46">
-        <v>12</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I47">
-        <v>12</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I48">
-        <v>12</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I49">
-        <v>12</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I50">
-        <v>10</v>
-      </c>
-      <c r="J50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51">
-        <v>12</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H52" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I52">
-        <v>12</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H53" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I53">
-        <v>12</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H54" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I54">
-        <v>12</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55">
-        <v>12</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I56">
-        <v>12</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H57" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I57">
-        <v>12</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H58" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I58">
-        <v>12</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
+      <c r="D53" s="4">
+        <v>12</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5">
+        <v>29880</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:K77">
-    <sortCondition ref="H4:H77"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J3:N38">
+    <sortCondition descending="1" ref="L3:L38"/>
+    <sortCondition ref="K3:K38"/>
+    <sortCondition ref="N3:N38"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/document/20210119_coupang_change.xlsx
+++ b/document/20210119_coupang_change.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\project\CMW_V2\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A8FE92-F5EB-488E-A2E6-1A628F39E2C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F915A2FF-5477-4E0D-8A62-B53222FBF253}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0957EC28-713C-4391-AB94-6CCD9C993B03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0957EC28-713C-4391-AB94-6CCD9C993B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -553,12 +553,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -575,7 +581,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -601,6 +607,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -923,19 +935,19 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="2.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H1" t="s">
         <v>16</v>
       </c>
@@ -943,7 +955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -978,7 +990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -1011,7 +1023,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -1044,7 +1056,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -1077,7 +1089,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -1110,7 +1122,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -1143,7 +1155,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -1176,7 +1188,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -1207,7 +1219,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -1238,7 +1250,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -1269,7 +1281,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -1300,7 +1312,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -1333,7 +1345,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>12</v>
       </c>
@@ -1366,7 +1378,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>13</v>
       </c>
@@ -1391,7 +1403,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>14</v>
       </c>
@@ -1416,7 +1428,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1429,7 +1441,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1442,7 +1454,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1455,7 +1467,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1468,7 +1480,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1481,7 +1493,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1494,7 +1506,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1507,7 +1519,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1520,7 +1532,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1533,7 +1545,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1546,7 +1558,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1559,7 +1571,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1572,7 +1584,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1585,7 +1597,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1598,7 +1610,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1623,27 +1635,27 @@
   <dimension ref="B2:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.09765625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="3.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="3.75" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.5" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.8984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.796875" style="4"/>
+    <col min="13" max="13" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1681,11 +1693,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="4">
@@ -1701,24 +1713,23 @@
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K3" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" s="4">
-        <v>12</v>
-      </c>
-      <c r="M3" s="3"/>
+        <v>7</v>
+      </c>
       <c r="N3" s="5">
-        <v>10028</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D4" s="4">
@@ -1734,19 +1745,22 @@
         <v>2</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
       </c>
       <c r="L4" s="4">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1</v>
       </c>
       <c r="N4" s="5">
-        <v>10150</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -1766,19 +1780,19 @@
         <v>3</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="K5" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L5" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N5" s="5">
-        <v>36747</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -1798,56 +1812,56 @@
         <v>4</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="K6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N6" s="5">
-        <v>80085</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>28</v>
+      <c r="C7" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="D7" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E7" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="5">
-        <v>937</v>
+        <v>748</v>
       </c>
       <c r="I7" s="4">
         <v>5</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>76</v>
+      <c r="J7" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="K7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N7" s="5">
-        <v>80085</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4">
         <v>12</v>
@@ -1856,97 +1870,106 @@
         <v>0</v>
       </c>
       <c r="G8" s="5">
-        <v>1577</v>
+        <v>937</v>
       </c>
       <c r="I8" s="4">
         <v>6</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="K8" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" s="4">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>2</v>
       </c>
       <c r="N8" s="5">
-        <v>80085</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
       </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
       <c r="G9" s="5">
-        <v>2099</v>
+        <v>1565</v>
       </c>
       <c r="I9" s="4">
         <v>7</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="K9" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L9" s="4">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>2</v>
       </c>
       <c r="N9" s="5">
-        <v>89960</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>65</v>
+      <c r="C10" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="D10" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
       </c>
+      <c r="F10" s="4">
+        <v>3</v>
+      </c>
       <c r="G10" s="5">
-        <v>3105</v>
+        <v>1565</v>
       </c>
       <c r="I10" s="4">
         <v>8</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="4">
         <v>11</v>
       </c>
-      <c r="M10" s="4">
-        <v>1</v>
-      </c>
       <c r="N10" s="5">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D11" s="4">
         <v>12</v>
@@ -1955,30 +1978,30 @@
         <v>0</v>
       </c>
       <c r="G11" s="5">
-        <v>6350</v>
+        <v>1577</v>
       </c>
       <c r="I11" s="4">
         <v>9</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="K11" s="4">
+        <v>11</v>
+      </c>
+      <c r="L11" s="4">
         <v>1</v>
       </c>
-      <c r="L11" s="4">
-        <v>11</v>
-      </c>
       <c r="N11" s="5">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
+        <v>7468</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4">
         <v>12</v>
@@ -1987,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="5">
-        <v>6350</v>
+        <v>2099</v>
       </c>
       <c r="I12" s="4">
         <v>10</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>19</v>
+      <c r="J12" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="K12" s="4">
         <v>1</v>
@@ -2002,30 +2025,33 @@
         <v>11</v>
       </c>
       <c r="N12" s="5">
-        <v>2480</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+        <v>8450</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>11</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>53</v>
+      <c r="C13" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="D13" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
       </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
       <c r="G13" s="5">
-        <v>7255</v>
+        <v>2099</v>
       </c>
       <c r="I13" s="4">
         <v>11</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K13" s="4">
         <v>1</v>
@@ -2034,30 +2060,30 @@
         <v>11</v>
       </c>
       <c r="N13" s="5">
-        <v>4201</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D14" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E14" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="5">
-        <v>14014</v>
+        <v>2488</v>
       </c>
       <c r="I14" s="4">
         <v>12</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K14" s="4">
         <v>1</v>
@@ -2066,15 +2092,15 @@
         <v>11</v>
       </c>
       <c r="N14" s="5">
-        <v>8450</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>13</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>34</v>
+      <c r="C15" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="D15" s="4">
         <v>12</v>
@@ -2083,30 +2109,31 @@
         <v>0</v>
       </c>
       <c r="G15" s="5">
-        <v>14014</v>
+        <v>3105</v>
       </c>
       <c r="I15" s="4">
         <v>13</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="K15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="4">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="M15" s="3"/>
       <c r="N15" s="5">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+        <v>10028</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>14</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>25</v>
+      <c r="C16" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="D16" s="4">
         <v>12</v>
@@ -2115,13 +2142,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="5">
-        <v>27349</v>
+        <v>6350</v>
       </c>
       <c r="I16" s="4">
         <v>14</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K16" s="4">
         <v>1</v>
@@ -2130,15 +2157,15 @@
         <v>11</v>
       </c>
       <c r="N16" s="5">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
+        <v>10028</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>15</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>36</v>
+      <c r="C17" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="D17" s="4">
         <v>12</v>
@@ -2147,30 +2174,30 @@
         <v>0</v>
       </c>
       <c r="G17" s="5">
-        <v>27349</v>
+        <v>6350</v>
       </c>
       <c r="I17" s="4">
         <v>15</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="K17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N17" s="5">
-        <v>10028</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
+        <v>10150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>16</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>24</v>
+      <c r="C18" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="D18" s="4">
         <v>12</v>
@@ -2179,30 +2206,30 @@
         <v>0</v>
       </c>
       <c r="G18" s="5">
-        <v>27349</v>
+        <v>7255</v>
       </c>
       <c r="I18" s="4">
         <v>16</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="K18" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L18" s="4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N18" s="5">
-        <v>17298</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
+        <v>13391</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D19" s="4">
         <v>12</v>
@@ -2211,13 +2238,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="5">
-        <v>27349</v>
+        <v>14014</v>
       </c>
       <c r="I19" s="4">
         <v>17</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K19" s="4">
         <v>1</v>
@@ -2226,15 +2253,15 @@
         <v>11</v>
       </c>
       <c r="N19" s="5">
-        <v>31849</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
+        <v>17298</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>18</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>51</v>
+      <c r="C20" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="D20" s="4">
         <v>12</v>
@@ -2243,30 +2270,30 @@
         <v>0</v>
       </c>
       <c r="G20" s="5">
-        <v>32661</v>
+        <v>14014</v>
       </c>
       <c r="I20" s="4">
         <v>18</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K20" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L20" s="4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N20" s="5">
-        <v>80085</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
+        <v>18210</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>19</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>62</v>
+      <c r="C21" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="D21" s="4">
         <v>12</v>
@@ -2275,30 +2302,30 @@
         <v>0</v>
       </c>
       <c r="G21" s="5">
-        <v>38215</v>
+        <v>27349</v>
       </c>
       <c r="I21" s="4">
         <v>19</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="K21" s="4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L21" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N21" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
+        <v>18210</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>20</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>73</v>
+      <c r="C22" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="D22" s="4">
         <v>12</v>
@@ -2307,33 +2334,30 @@
         <v>0</v>
       </c>
       <c r="G22" s="5">
-        <v>38215</v>
+        <v>27349</v>
       </c>
       <c r="I22" s="4">
         <v>20</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K22" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L22" s="4">
-        <v>2</v>
-      </c>
-      <c r="M22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="5">
-        <v>56376</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
+        <v>18331</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>21</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>60</v>
+      <c r="C23" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="D23" s="4">
         <v>12</v>
@@ -2342,30 +2366,30 @@
         <v>0</v>
       </c>
       <c r="G23" s="5">
-        <v>38215</v>
+        <v>27349</v>
       </c>
       <c r="I23" s="4">
         <v>21</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K23" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L23" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23" s="5">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
+        <v>18331</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>22</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D24" s="4">
         <v>12</v>
@@ -2374,33 +2398,30 @@
         <v>0</v>
       </c>
       <c r="G24" s="5">
-        <v>39557</v>
+        <v>27349</v>
       </c>
       <c r="I24" s="4">
         <v>22</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="K24" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L24" s="4">
-        <v>1</v>
-      </c>
-      <c r="M24" s="4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N24" s="5">
-        <v>2923</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
+        <v>31849</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <v>23</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>31</v>
+      <c r="C25" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="D25" s="4">
         <v>12</v>
@@ -2409,30 +2430,30 @@
         <v>0</v>
       </c>
       <c r="G25" s="5">
-        <v>39557</v>
+        <v>32661</v>
       </c>
       <c r="I25" s="4">
         <v>23</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="K25" s="4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L25" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N25" s="5">
-        <v>7468</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
+        <v>36747</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>24</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>21</v>
+      <c r="C26" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="D26" s="4">
         <v>12</v>
@@ -2441,30 +2462,33 @@
         <v>0</v>
       </c>
       <c r="G26" s="5">
-        <v>39557</v>
+        <v>38215</v>
       </c>
       <c r="I26" s="4">
         <v>24</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K26" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L26" s="4">
+        <v>2</v>
+      </c>
+      <c r="M26" s="4">
         <v>1</v>
       </c>
       <c r="N26" s="5">
         <v>56376</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>25</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>32</v>
+      <c r="C27" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="D27" s="4">
         <v>12</v>
@@ -2473,13 +2497,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="5">
-        <v>39557</v>
+        <v>38215</v>
       </c>
       <c r="I27" s="4">
         <v>25</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K27" s="4">
         <v>11</v>
@@ -2491,12 +2515,12 @@
         <v>56376</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>26</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>30</v>
+      <c r="C28" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="D28" s="4">
         <v>12</v>
@@ -2505,33 +2529,30 @@
         <v>0</v>
       </c>
       <c r="G28" s="5">
-        <v>65922</v>
+        <v>38215</v>
       </c>
       <c r="I28" s="4">
         <v>26</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K28" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L28" s="4">
-        <v>0</v>
-      </c>
-      <c r="M28" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28" s="5">
-        <v>2920</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
+        <v>56376</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="4">
         <v>27</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D29" s="4">
         <v>12</v>
@@ -2540,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="5">
-        <v>65922</v>
+        <v>39557</v>
       </c>
       <c r="I29" s="4">
         <v>27</v>
@@ -2561,12 +2582,12 @@
         <v>78730</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
         <v>28</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D30" s="4">
         <v>12</v>
@@ -2575,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="5">
-        <v>193110</v>
+        <v>39557</v>
       </c>
       <c r="I30" s="4">
         <v>28</v>
@@ -2596,12 +2617,12 @@
         <v>78730</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
         <v>29</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D31" s="4">
         <v>12</v>
@@ -2610,30 +2631,30 @@
         <v>0</v>
       </c>
       <c r="G31" s="5">
-        <v>193110</v>
+        <v>39557</v>
       </c>
       <c r="I31" s="4">
         <v>29</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="K31" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L31" s="4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N31" s="5">
-        <v>13391</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
+        <v>80085</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
         <v>30</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>11</v>
+      <c r="C32" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="D32" s="4">
         <v>12</v>
@@ -2642,30 +2663,30 @@
         <v>0</v>
       </c>
       <c r="G32" s="5">
-        <v>1610581</v>
+        <v>39557</v>
       </c>
       <c r="I32" s="4">
         <v>30</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K32" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L32" s="4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N32" s="5">
-        <v>18210</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
+        <v>80085</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
         <v>31</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>12</v>
+      <c r="C33" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="D33" s="4">
         <v>12</v>
@@ -2674,74 +2695,71 @@
         <v>0</v>
       </c>
       <c r="G33" s="5">
-        <v>1610581</v>
+        <v>65922</v>
       </c>
       <c r="I33" s="4">
         <v>31</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="K33" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L33" s="4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N33" s="5">
-        <v>18331</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
+        <v>80085</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
         <v>32</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>13</v>
+      <c r="C34" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="D34" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="5">
-        <v>246135</v>
+        <v>65922</v>
       </c>
       <c r="I34" s="4">
         <v>32</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="K34" s="4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L34" s="4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N34" s="5">
-        <v>18331</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
+        <v>80085</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="4">
         <v>33</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D35" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E35" s="4">
         <v>0</v>
       </c>
-      <c r="F35" s="4">
-        <v>1</v>
-      </c>
       <c r="G35" s="5">
-        <v>2099</v>
+        <v>193110</v>
       </c>
       <c r="I35" s="4">
         <v>33</v>
@@ -2759,21 +2777,21 @@
         <v>80085</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="4">
         <v>34</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>48</v>
+      <c r="C36" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="D36" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E36" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" s="5">
-        <v>502349</v>
+        <v>193110</v>
       </c>
       <c r="I36" s="4">
         <v>34</v>
@@ -2791,24 +2809,21 @@
         <v>80085</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="4">
         <v>35</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>29</v>
+      <c r="C37" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D37" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" s="4">
-        <v>0</v>
-      </c>
-      <c r="F37" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="5">
-        <v>1565</v>
+        <v>246135</v>
       </c>
       <c r="I37" s="4">
         <v>35</v>
@@ -2826,79 +2841,76 @@
         <v>80085</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="4">
         <v>36</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D38" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38" s="5">
-        <v>748</v>
+        <v>502349</v>
       </c>
       <c r="I38" s="4">
         <v>36</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="K38" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L38" s="4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N38" s="5">
-        <v>18210</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
+        <v>89960</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="4">
         <v>37</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>18</v>
+      <c r="C39" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D39" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E39" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G39" s="5">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.4">
+        <v>1610581</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="4">
         <v>38</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>40</v>
+      <c r="C40" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D40" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E40" s="4">
         <v>0</v>
       </c>
-      <c r="F40" s="4">
-        <v>3</v>
-      </c>
       <c r="G40" s="5">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.4">
+        <v>1610581</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C42" s="6" t="s">
         <v>44</v>
       </c>
@@ -2912,7 +2924,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C43" s="6" t="s">
         <v>46</v>
       </c>
@@ -2926,7 +2938,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C44" s="6" t="s">
         <v>49</v>
       </c>
@@ -2940,7 +2952,7 @@
         <v>3303</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C45" s="6" t="s">
         <v>54</v>
       </c>
@@ -2954,7 +2966,7 @@
         <v>3868</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C46" s="6" t="s">
         <v>42</v>
       </c>
@@ -2968,7 +2980,7 @@
         <v>6118</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C47" s="6" t="s">
         <v>47</v>
       </c>
@@ -2982,7 +2994,7 @@
         <v>8883</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C48" s="6" t="s">
         <v>58</v>
       </c>
@@ -2996,7 +3008,7 @@
         <v>11310</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" s="6" t="s">
         <v>64</v>
       </c>
@@ -3010,7 +3022,7 @@
         <v>15675</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" s="6" t="s">
         <v>66</v>
       </c>
@@ -3024,7 +3036,7 @@
         <v>15675</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C51" s="6" t="s">
         <v>45</v>
       </c>
@@ -3038,7 +3050,7 @@
         <v>28149</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C52" s="6" t="s">
         <v>43</v>
       </c>
@@ -3052,7 +3064,7 @@
         <v>29880</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C53" s="6" t="s">
         <v>50</v>
       </c>
@@ -3068,9 +3080,8 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J3:N38">
+    <sortCondition ref="N3:N38"/>
     <sortCondition descending="1" ref="L3:L38"/>
-    <sortCondition ref="K3:K38"/>
-    <sortCondition ref="N3:N38"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/20210119_coupang_change.xlsx
+++ b/document/20210119_coupang_change.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\project\CMW_V2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F915A2FF-5477-4E0D-8A62-B53222FBF253}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108AFD67-7D2D-43DA-8126-B793C90CF072}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0957EC28-713C-4391-AB94-6CCD9C993B03}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0957EC28-713C-4391-AB94-6CCD9C993B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -931,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECB5EFF-7CFE-401E-9022-A76867444D8F}">
   <dimension ref="B1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1635,7 +1635,7 @@
   <dimension ref="B2:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1652,7 +1652,9 @@
     <col min="11" max="12" width="7" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.25" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.75" style="4"/>
+    <col min="15" max="15" width="8.75" style="4"/>
+    <col min="16" max="16" width="11.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
@@ -1796,7 +1798,7 @@
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="4">

--- a/document/20210119_coupang_change.xlsx
+++ b/document/20210119_coupang_change.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\project\CMW_V2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108AFD67-7D2D-43DA-8126-B793C90CF072}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0E1F81-EFF3-4730-8C40-A0E65C61CEA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0957EC28-713C-4391-AB94-6CCD9C993B03}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="124">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -429,9 +429,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>꿈을이루는집 2겹 대용량 점보롤 티슈 16롤 공중화장실 업소용 화장지 휴지</t>
-  </si>
-  <si>
     <t>1개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -440,10 +437,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>꿈을이루는집 2겹 대용량 꽃무늬 점보롤 티슈 16롤 공중화장실 업소용 화장지 휴지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대용량 점보롤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -502,6 +495,20 @@
   <si>
     <t>상품수</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈을이루는집 고급점보롤 2겹 16롤 150m 물에 잘 녹는 화장지</t>
+  </si>
+  <si>
+    <t>꿈을이루는집 물에 잘녹는 2겹 대용량 고급 점보롤 티슈 16롤 업소용 공중화장실 화장지 휴지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈을이루는집 물에 잘녹는 2겹 대용량 꽃무늬 점보롤 티슈 16롤 업소용 공중화장실 화장지 휴지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코멧 점보롤,롤휴지 업소 용,2겹 데코 점보롤,3겹 데코 점보롤,물에잘녹는 화장지,공중화장실 화장지,공중화장실 휴지,롤휴지 업소용 3겹,롤휴지 업소용 2겹,점보 롤휴지 3겹,점보롤 화장지 3겹,3겹 점보롤,점보롤 3겹,대형 롤휴지,대용량 점보롤,업소용 화장실 롤휴지,점보 롤휴지 3겹,점보롤 화장지 2겹,2겹 점보롤,점보롤 2겹, 화장실 휴지 점보롤</t>
   </si>
 </sst>
 </file>
@@ -929,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECB5EFF-7CFE-401E-9022-A76867444D8F}">
-  <dimension ref="B1:L31"/>
+  <dimension ref="B1:L32"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1383,20 +1390,22 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>22000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>20990</v>
+      </c>
       <c r="G15" s="1">
         <v>100</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1404,38 +1413,42 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1">
-        <v>100</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="B17" s="3">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="1">
+        <v>23200</v>
+      </c>
+      <c r="F17" s="1">
+        <v>21900</v>
+      </c>
+      <c r="G17" s="1">
+        <v>100</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1623,6 +1636,19 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1632,10 +1658,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650FEA28-B401-448D-8D0B-86039261E68A}">
-  <dimension ref="B2:N53"/>
+  <dimension ref="B2:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1657,7 +1683,7 @@
     <col min="17" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1674,7 +1700,7 @@
         <v>75</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>0</v>
@@ -1692,10 +1718,10 @@
         <v>75</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -1726,8 +1752,11 @@
       <c r="N3" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P3" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -1762,7 +1791,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -1782,7 +1811,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K5" s="4">
         <v>10</v>
@@ -1794,7 +1823,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -1826,7 +1855,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -1858,7 +1887,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -1878,7 +1907,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K8" s="4">
         <v>10</v>
@@ -1893,7 +1922,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -1916,7 +1945,7 @@
         <v>7</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K9" s="4">
         <v>9</v>
@@ -1931,7 +1960,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -1966,7 +1995,7 @@
         <v>4201</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -1986,7 +2015,7 @@
         <v>9</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K11" s="4">
         <v>11</v>
@@ -1998,7 +2027,7 @@
         <v>7468</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -2030,7 +2059,7 @@
         <v>8450</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>11</v>
       </c>
@@ -2065,7 +2094,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>12</v>
       </c>
@@ -2097,7 +2126,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>13</v>
       </c>
@@ -2130,7 +2159,7 @@
         <v>10028</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>14</v>
       </c>
@@ -2214,7 +2243,7 @@
         <v>16</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K18" s="4">
         <v>12</v>
@@ -2310,7 +2339,7 @@
         <v>19</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K21" s="4">
         <v>12</v>
@@ -2342,7 +2371,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K22" s="4">
         <v>12</v>
@@ -2374,7 +2403,7 @@
         <v>21</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K23" s="4">
         <v>12</v>
@@ -2470,7 +2499,7 @@
         <v>24</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K26" s="4">
         <v>9</v>
@@ -2505,7 +2534,7 @@
         <v>25</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K27" s="4">
         <v>11</v>
@@ -2537,7 +2566,7 @@
         <v>26</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K28" s="4">
         <v>11</v>
@@ -2569,7 +2598,7 @@
         <v>27</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K29" s="4">
         <v>11</v>
@@ -2604,7 +2633,7 @@
         <v>28</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K30" s="4">
         <v>11</v>
@@ -2767,7 +2796,7 @@
         <v>33</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K35" s="4">
         <v>12</v>

--- a/document/20210119_coupang_change.xlsx
+++ b/document/20210119_coupang_change.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\project\CMW_V2\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0E1F81-EFF3-4730-8C40-A0E65C61CEA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF082F41-441E-4AA5-943E-099BBF72D338}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0957EC28-713C-4391-AB94-6CCD9C993B03}"/>
+    <workbookView xWindow="28680" yWindow="2490" windowWidth="21840" windowHeight="13140" xr2:uid="{0957EC28-713C-4391-AB94-6CCD9C993B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="133">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>재고수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대표이미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -500,23 +496,64 @@
     <t>꿈을이루는집 고급점보롤 2겹 16롤 150m 물에 잘 녹는 화장지</t>
   </si>
   <si>
-    <t>꿈을이루는집 물에 잘녹는 2겹 대용량 고급 점보롤 티슈 16롤 업소용 공중화장실 화장지 휴지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꿈을이루는집 물에 잘녹는 2겹 대용량 꽃무늬 점보롤 티슈 16롤 업소용 공중화장실 화장지 휴지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>코멧 점보롤,롤휴지 업소 용,2겹 데코 점보롤,3겹 데코 점보롤,물에잘녹는 화장지,공중화장실 화장지,공중화장실 휴지,롤휴지 업소용 3겹,롤휴지 업소용 2겹,점보 롤휴지 3겹,점보롤 화장지 3겹,3겹 점보롤,점보롤 3겹,대형 롤휴지,대용량 점보롤,업소용 화장실 롤휴지,점보 롤휴지 3겹,점보롤 화장지 2겹,2겹 점보롤,점보롤 2겹, 화장실 휴지 점보롤</t>
+  </si>
+  <si>
+    <t>꿈을이루는집 물에 잘녹는 2겹 대용량 고급 점보롤 티슈 16롤 150m 업소용 공중화장실 화장지 휴지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈을이루는집 물에 잘녹는 2겹 대용량 꽃무늬 점보롤 티슈 16롤 150m 업소용 공중화장실 화장지 휴지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈을이루는집 물에 잘녹는 2겹 대용량 고급 점보롤 티슈 16롤 180m 업소용 공중화장실 화장지 휴지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈을이루는집 물에 잘녹는 2겹 대용량 고급 점보롤 티슈 16롤 200m 업소용 공중화장실 화장지 휴지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈을이루는집 물에 잘녹는 2겹 대용량 고급 점보롤 티슈 16롤 300m 업소용 공중화장실 화장지 휴지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈을이루는집 물에 잘녹는 2겹 대용량 꽃무늬 점보롤 티슈 16롤 180m 업소용 공중화장실 화장지 휴지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈을이루는집 물에 잘녹는 2겹 대용량 꽃무늬 점보롤 티슈 16롤 200m 업소용 공중화장실 화장지 휴지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈을이루는집 물에 잘녹는 2겹 대용량 꽃무늬 점보롤 티슈 16롤 300m 업소용 공중화장실 화장지 휴지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 주요정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매기간- 설정안함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -560,7 +597,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,6 +607,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,7 +631,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -621,6 +664,33 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -936,33 +1006,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECB5EFF-7CFE-401E-9022-A76867444D8F}">
-  <dimension ref="B1:L32"/>
+  <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="2.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.5" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H1" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -972,558 +1045,799 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>15800</v>
+      </c>
+      <c r="H3" s="1">
+        <v>100</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>15800</v>
-      </c>
-      <c r="G3" s="1">
-        <v>100</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>18000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>100</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>18000</v>
-      </c>
-      <c r="G4" s="1">
-        <v>100</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>18000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>100</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>18000</v>
-      </c>
-      <c r="G5" s="1">
-        <v>100</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>19800</v>
+      </c>
+      <c r="H6" s="1">
+        <v>100</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>19800</v>
-      </c>
-      <c r="G6" s="1">
-        <v>100</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>20400</v>
+      </c>
+      <c r="H7" s="1">
+        <v>100</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>20400</v>
-      </c>
-      <c r="G7" s="1">
-        <v>100</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>14700</v>
+      </c>
+      <c r="H8" s="1">
+        <v>100</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>14700</v>
-      </c>
-      <c r="G8" s="1">
-        <v>100</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <v>100</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <v>100</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <v>100</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1">
-        <v>100</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>15000</v>
+      </c>
+      <c r="H13" s="1">
+        <v>100</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>20700</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="11">
+        <v>13</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="18">
+        <f>(F15-G15)/G15</f>
+        <v>4.8118151500714627E-2</v>
+      </c>
+      <c r="F15" s="13">
+        <v>22000</v>
+      </c>
+      <c r="G15" s="13">
+        <v>20990</v>
+      </c>
+      <c r="H15" s="12">
+        <v>100</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" s="14">
+        <v>20990</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="11">
         <v>14</v>
       </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>15000</v>
-      </c>
-      <c r="G13" s="1">
-        <v>100</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="C16" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="18">
+        <f>(F16-G16)/G16</f>
+        <v>5.106382978723404E-2</v>
+      </c>
+      <c r="F16" s="13">
+        <v>24700</v>
+      </c>
+      <c r="G16" s="13">
+        <v>23500</v>
+      </c>
+      <c r="H16" s="12">
+        <v>50</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O16" s="14">
+        <v>23990</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="11">
         <v>15</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
+      <c r="C17" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="18">
+        <f>(1-(G17/F17))</f>
+        <v>5.2044609665427455E-2</v>
+      </c>
+      <c r="F17" s="13">
+        <v>26900</v>
+      </c>
+      <c r="G17" s="13">
+        <v>25500</v>
+      </c>
+      <c r="H17" s="12">
+        <v>20</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="M17" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>20700</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
+      <c r="N17" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O17" s="14">
+        <v>25720</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="11">
+        <v>16</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="18">
+        <f t="shared" ref="E17:E22" si="0">(F18-G18)/G18</f>
+        <v>5.4913294797687862E-2</v>
+      </c>
+      <c r="F18" s="13">
+        <v>36500</v>
+      </c>
+      <c r="G18" s="13">
+        <v>34600</v>
+      </c>
+      <c r="H18" s="12">
+        <v>20</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="M18" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="N18" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O18" s="14">
+        <v>34780</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="11">
+        <v>17</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="18">
+        <f t="shared" si="0"/>
+        <v>5.9360730593607303E-2</v>
+      </c>
+      <c r="F19" s="13">
+        <v>23200</v>
+      </c>
+      <c r="G19" s="13">
+        <v>21900</v>
+      </c>
+      <c r="H19" s="12">
+        <v>50</v>
+      </c>
+      <c r="I19" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="1">
-        <v>22000</v>
-      </c>
-      <c r="F15" s="1">
-        <v>20990</v>
-      </c>
-      <c r="G15" s="1">
-        <v>100</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="1" t="s">
+      <c r="J19" s="12"/>
+      <c r="K19" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L19" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="M19" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O19" s="14">
+        <v>21990</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="11">
+        <v>18</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="18">
+        <f t="shared" si="0"/>
+        <v>5.3061224489795916E-2</v>
+      </c>
+      <c r="F20" s="13">
+        <v>25800</v>
+      </c>
+      <c r="G20" s="13">
+        <v>24500</v>
+      </c>
+      <c r="H20" s="12">
+        <v>50</v>
+      </c>
+      <c r="I20" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="1">
-        <v>23200</v>
-      </c>
-      <c r="F17" s="1">
-        <v>21900</v>
-      </c>
-      <c r="G17" s="1">
-        <v>100</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J20" s="12"/>
+      <c r="K20" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O20" s="14">
+        <v>24980</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="11">
+        <v>19</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="18">
+        <f t="shared" si="0"/>
+        <v>5.2830188679245285E-2</v>
+      </c>
+      <c r="F21" s="13">
+        <v>27900</v>
+      </c>
+      <c r="G21" s="13">
+        <v>26500</v>
+      </c>
+      <c r="H21" s="12">
+        <v>20</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O21" s="14">
+        <v>26800</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="11">
+        <v>20</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="18">
+        <f t="shared" si="0"/>
+        <v>5.3221288515406161E-2</v>
+      </c>
+      <c r="F22" s="13">
+        <v>37600</v>
+      </c>
+      <c r="G22" s="13">
+        <v>35700</v>
+      </c>
+      <c r="H22" s="12">
+        <v>20</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O22" s="14">
+        <v>35990</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1531,12 +1845,14 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1544,12 +1860,14 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1557,12 +1875,14 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1570,12 +1890,14 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1583,12 +1905,14 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1596,12 +1920,14 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1609,12 +1935,14 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="17"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1622,12 +1950,14 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1635,12 +1965,14 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="17"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1648,6 +1980,38 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1660,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650FEA28-B401-448D-8D0B-86039261E68A}">
   <dimension ref="B2:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1688,37 +2052,37 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="N2" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
@@ -1726,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="4">
         <v>12</v>
@@ -1741,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K3" s="4">
         <v>2</v>
@@ -1753,7 +2117,7 @@
         <v>5</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
@@ -1761,7 +2125,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="4">
         <v>12</v>
@@ -1776,7 +2140,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
@@ -1796,7 +2160,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="4">
         <v>12</v>
@@ -1811,7 +2175,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K5" s="4">
         <v>10</v>
@@ -1828,7 +2192,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="4">
         <v>12</v>
@@ -1843,7 +2207,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K6" s="4">
         <v>1</v>
@@ -1860,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="4">
         <v>9</v>
@@ -1875,7 +2239,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" s="4">
         <v>1</v>
@@ -1892,7 +2256,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4">
         <v>12</v>
@@ -1907,7 +2271,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K8" s="4">
         <v>10</v>
@@ -1927,7 +2291,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4">
         <v>10</v>
@@ -1945,7 +2309,7 @@
         <v>7</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K9" s="4">
         <v>9</v>
@@ -1965,7 +2329,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="4">
         <v>9</v>
@@ -1983,7 +2347,7 @@
         <v>8</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K10" s="4">
         <v>1</v>
@@ -2000,7 +2364,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="4">
         <v>12</v>
@@ -2015,7 +2379,7 @@
         <v>9</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K11" s="4">
         <v>11</v>
@@ -2032,7 +2396,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4">
         <v>12</v>
@@ -2047,7 +2411,7 @@
         <v>10</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12" s="4">
         <v>1</v>
@@ -2064,7 +2428,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="4">
         <v>11</v>
@@ -2082,7 +2446,7 @@
         <v>11</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K13" s="4">
         <v>1</v>
@@ -2099,7 +2463,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="4">
         <v>9</v>
@@ -2114,7 +2478,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K14" s="4">
         <v>1</v>
@@ -2131,7 +2495,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="4">
         <v>12</v>
@@ -2146,7 +2510,7 @@
         <v>13</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -2164,7 +2528,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="4">
         <v>12</v>
@@ -2179,7 +2543,7 @@
         <v>14</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K16" s="4">
         <v>1</v>
@@ -2196,7 +2560,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="4">
         <v>12</v>
@@ -2211,7 +2575,7 @@
         <v>15</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -2228,7 +2592,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="4">
         <v>12</v>
@@ -2243,7 +2607,7 @@
         <v>16</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K18" s="4">
         <v>12</v>
@@ -2260,7 +2624,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="4">
         <v>12</v>
@@ -2275,7 +2639,7 @@
         <v>17</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K19" s="4">
         <v>1</v>
@@ -2292,7 +2656,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="4">
         <v>12</v>
@@ -2307,7 +2671,7 @@
         <v>18</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K20" s="4">
         <v>12</v>
@@ -2324,7 +2688,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="4">
         <v>12</v>
@@ -2339,7 +2703,7 @@
         <v>19</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K21" s="4">
         <v>12</v>
@@ -2356,7 +2720,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="4">
         <v>12</v>
@@ -2371,7 +2735,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K22" s="4">
         <v>12</v>
@@ -2388,7 +2752,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="4">
         <v>12</v>
@@ -2403,7 +2767,7 @@
         <v>21</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K23" s="4">
         <v>12</v>
@@ -2420,7 +2784,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="4">
         <v>12</v>
@@ -2435,7 +2799,7 @@
         <v>22</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K24" s="4">
         <v>1</v>
@@ -2452,7 +2816,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="4">
         <v>12</v>
@@ -2467,7 +2831,7 @@
         <v>23</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K25" s="4">
         <v>0</v>
@@ -2484,7 +2848,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="4">
         <v>12</v>
@@ -2499,7 +2863,7 @@
         <v>24</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K26" s="4">
         <v>9</v>
@@ -2519,7 +2883,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27" s="4">
         <v>12</v>
@@ -2534,7 +2898,7 @@
         <v>25</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K27" s="4">
         <v>11</v>
@@ -2551,7 +2915,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="4">
         <v>12</v>
@@ -2566,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K28" s="4">
         <v>11</v>
@@ -2583,7 +2947,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" s="4">
         <v>12</v>
@@ -2598,7 +2962,7 @@
         <v>27</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K29" s="4">
         <v>11</v>
@@ -2618,7 +2982,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="4">
         <v>12</v>
@@ -2633,7 +2997,7 @@
         <v>28</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K30" s="4">
         <v>11</v>
@@ -2653,7 +3017,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" s="4">
         <v>12</v>
@@ -2668,7 +3032,7 @@
         <v>29</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K31" s="4">
         <v>0</v>
@@ -2685,7 +3049,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" s="4">
         <v>12</v>
@@ -2700,7 +3064,7 @@
         <v>30</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K32" s="4">
         <v>0</v>
@@ -2717,7 +3081,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" s="4">
         <v>12</v>
@@ -2732,7 +3096,7 @@
         <v>31</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K33" s="4">
         <v>0</v>
@@ -2749,7 +3113,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34" s="4">
         <v>12</v>
@@ -2764,7 +3128,7 @@
         <v>32</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K34" s="4">
         <v>1</v>
@@ -2781,7 +3145,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" s="4">
         <v>12</v>
@@ -2796,7 +3160,7 @@
         <v>33</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K35" s="4">
         <v>12</v>
@@ -2813,7 +3177,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" s="4">
         <v>12</v>
@@ -2828,7 +3192,7 @@
         <v>34</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K36" s="4">
         <v>12</v>
@@ -2845,7 +3209,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" s="4">
         <v>11</v>
@@ -2860,7 +3224,7 @@
         <v>35</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K37" s="4">
         <v>12</v>
@@ -2877,7 +3241,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D38" s="4">
         <v>10</v>
@@ -2892,7 +3256,7 @@
         <v>36</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K38" s="4">
         <v>0</v>
@@ -2909,7 +3273,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" s="4">
         <v>12</v>
@@ -2926,7 +3290,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" s="4">
         <v>12</v>
@@ -2943,7 +3307,7 @@
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C42" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D42" s="4">
         <v>12</v>
@@ -2957,7 +3321,7 @@
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C43" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43" s="4">
         <v>12</v>
@@ -2971,7 +3335,7 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C44" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D44" s="4">
         <v>12</v>
@@ -2985,7 +3349,7 @@
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C45" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" s="4">
         <v>12</v>
@@ -2999,7 +3363,7 @@
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C46" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D46" s="4">
         <v>12</v>
@@ -3013,7 +3377,7 @@
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C47" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D47" s="4">
         <v>12</v>
@@ -3027,7 +3391,7 @@
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C48" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D48" s="4">
         <v>12</v>
@@ -3041,7 +3405,7 @@
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D49" s="4">
         <v>12</v>
@@ -3055,7 +3419,7 @@
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D50" s="4">
         <v>12</v>
@@ -3069,7 +3433,7 @@
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C51" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D51" s="4">
         <v>12</v>
@@ -3083,7 +3447,7 @@
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C52" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D52" s="4">
         <v>12</v>
@@ -3097,7 +3461,7 @@
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C53" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D53" s="4">
         <v>12</v>

--- a/document/20210119_coupang_change.xlsx
+++ b/document/20210119_coupang_change.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF082F41-441E-4AA5-943E-099BBF72D338}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C2EABF-57BD-4C51-8197-27B7B300E33B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2490" windowWidth="21840" windowHeight="13140" xr2:uid="{0957EC28-713C-4391-AB94-6CCD9C993B03}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="147">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,10 +353,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다음시트확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상세페이지 참조</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -385,14 +381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>꿈을이루는집 물에잘녹는 3겹 새피아 10롤 두루마리 휴지 먼지없는 친환경 착한 노브랜드 두루말이 화장지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6팩기준짜리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,10 +393,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>꿈을이루는집 물에잘녹는 3겹 새피아 24롤 두루마리 휴지 먼지없는 친환경 착한 노브랜드 두루말이 화장지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -493,9 +477,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>꿈을이루는집 고급점보롤 2겹 16롤 150m 물에 잘 녹는 화장지</t>
-  </si>
-  <si>
     <t>코멧 점보롤,롤휴지 업소 용,2겹 데코 점보롤,3겹 데코 점보롤,물에잘녹는 화장지,공중화장실 화장지,공중화장실 휴지,롤휴지 업소용 3겹,롤휴지 업소용 2겹,점보 롤휴지 3겹,점보롤 화장지 3겹,3겹 점보롤,점보롤 3겹,대형 롤휴지,대용량 점보롤,업소용 화장실 롤휴지,점보 롤휴지 3겹,점보롤 화장지 2겹,2겹 점보롤,점보롤 2겹, 화장실 휴지 점보롤</t>
   </si>
   <si>
@@ -544,6 +525,80 @@
   </si>
   <si>
     <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1팩기준까지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두루마리휴지 물 에 녹는 휴지,착한 화장지,착한 휴지,물에잘녹는 휴지,두루마리휴지 3겹,두루마리 휴지 무형광 무향 무잉크,노브랜드 화장지,노브랜드 휴지,먼지없는 화장지,먼지없는 휴지,30롤 휴지,휴지 30롤,3겹 화장지,화장지 3겹,두루말이 휴지,두루말이 화장지,3겹 롤휴지,롤휴지 3겹,순수 화장지,순수 휴지</t>
+  </si>
+  <si>
+    <t>두루마리휴지 물 에 녹는 휴지,착한 화장지,착한 휴지,물에잘녹는 휴지,두루마리휴지 3겹,두루마리 휴지 무형광 무향 무잉크,노브랜드 화장지,노브랜드 휴지,먼지없는 화장지,먼지없는 휴지,30롤 휴지,휴지 30롤,3겹 화장지,화장지 3겹,두루말이 휴지,두루말이 화장지,3겹 롤휴지,롤휴지 3겹,순수 화장지,30롤 화장지</t>
+  </si>
+  <si>
+    <t>순수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4새</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4팩기준짜리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1팩기준짜리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7팩기준짜리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8팩기준짜리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9팩기준짜리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물에 잘녹는 3겹 새피아 24롤 두루마리 휴지 먼지없는 친환경 착한 노브랜드 두루말이 화장지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물에 잘녹는 3겹 새피아 10롤 두루마리 휴지 먼지없는 친환경 착한 노브랜드 두루말이 화장지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,7 +686,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,6 +745,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1006,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECB5EFF-7CFE-401E-9022-A76867444D8F}">
-  <dimension ref="B1:P34"/>
+  <dimension ref="B1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1017,17 +1075,18 @@
     <col min="2" max="2" width="2.625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75.5" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="13" max="13" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I1" t="s">
         <v>15</v>
       </c>
@@ -1035,7 +1094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="2:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1053,7 +1112,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>5</v>
@@ -1062,836 +1121,754 @@
         <v>6</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="3">
+    <row r="3" spans="2:15" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B3" s="20"/>
+      <c r="C3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="18">
+        <f t="shared" ref="E3:E4" si="0">1-(G3/F3)</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="F3" s="12">
+        <v>9600</v>
+      </c>
+      <c r="G3" s="12">
+        <v>9100</v>
+      </c>
+      <c r="H3" s="12">
+        <v>50</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="E4" s="18">
+        <f t="shared" si="0"/>
+        <v>5.0632911392405111E-2</v>
+      </c>
+      <c r="F4" s="12">
         <v>15800</v>
       </c>
-      <c r="H3" s="1">
+      <c r="G4" s="12">
+        <v>15000</v>
+      </c>
+      <c r="H4" s="12">
         <v>100</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="1" t="s">
+    </row>
+    <row r="5" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>18000</v>
-      </c>
-      <c r="H4" s="1">
-        <v>100</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
+      <c r="D5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="18">
+        <f>1-(G5/F5)</f>
+        <v>5.092592592592593E-2</v>
+      </c>
+      <c r="F5" s="12">
+        <v>21600</v>
+      </c>
+      <c r="G5" s="12">
+        <v>20500</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="N4" s="1" t="s">
+    </row>
+    <row r="6" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>18000</v>
-      </c>
-      <c r="H5" s="1">
-        <v>100</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1" t="s">
+      <c r="D6" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="18">
+        <f>1-(G6/F6)</f>
+        <v>5.0793650793650835E-2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>31500</v>
+      </c>
+      <c r="G6" s="12">
+        <v>29900</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="O6" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>19800</v>
-      </c>
-      <c r="H6" s="1">
-        <v>100</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>20400</v>
-      </c>
-      <c r="H7" s="1">
-        <v>100</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="18">
+        <f>1-(G8/F8)</f>
+        <v>5.4545454545454564E-2</v>
+      </c>
+      <c r="F8" s="12">
+        <v>11000</v>
+      </c>
+      <c r="G8" s="12">
+        <v>10400</v>
+      </c>
+      <c r="H8" s="12">
+        <v>50</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N8" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="O8" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="1" t="s">
+    </row>
+    <row r="9" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>14700</v>
-      </c>
-      <c r="H8" s="1">
-        <v>100</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
-        <v>100</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="E9" s="18">
+        <f t="shared" ref="E9:E30" si="1">1-(G9/F9)</f>
+        <v>5.2631578947368474E-2</v>
+      </c>
+      <c r="F9" s="12">
+        <v>19000</v>
+      </c>
+      <c r="G9" s="12">
+        <v>18000</v>
+      </c>
+      <c r="H9" s="12">
+        <v>50</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1">
-        <v>100</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="E10" s="18">
+        <f t="shared" si="1"/>
+        <v>5.2307692307692277E-2</v>
+      </c>
+      <c r="F10" s="12">
+        <v>26000</v>
+      </c>
+      <c r="G10" s="12">
+        <v>24640</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="18">
+        <f t="shared" si="1"/>
+        <v>5.2910052910052907E-2</v>
+      </c>
+      <c r="F11" s="12">
+        <v>37800</v>
+      </c>
+      <c r="G11" s="12">
+        <v>35800</v>
+      </c>
+      <c r="H11" s="12">
+        <v>50</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11">
+        <v>3</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="18">
+        <f t="shared" si="1"/>
+        <v>5.4545454545454564E-2</v>
+      </c>
+      <c r="F13" s="12">
+        <v>11000</v>
+      </c>
+      <c r="G13" s="12">
+        <v>10400</v>
+      </c>
+      <c r="H13" s="12">
+        <v>50</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N13" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="O13" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="1" t="s">
+    </row>
+    <row r="14" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>15000</v>
-      </c>
-      <c r="H13" s="1">
-        <v>100</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>20700</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="11">
-        <v>13</v>
-      </c>
+      <c r="E14" s="18">
+        <f t="shared" si="1"/>
+        <v>5.2631578947368474E-2</v>
+      </c>
+      <c r="F14" s="12">
+        <v>19000</v>
+      </c>
+      <c r="G14" s="12">
+        <v>18000</v>
+      </c>
+      <c r="H14" s="12">
+        <v>50</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="11"/>
       <c r="C15" s="12" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E15" s="18">
-        <f>(F15-G15)/G15</f>
-        <v>4.8118151500714627E-2</v>
-      </c>
-      <c r="F15" s="13">
-        <v>22000</v>
-      </c>
-      <c r="G15" s="13">
-        <v>20990</v>
+        <f t="shared" si="1"/>
+        <v>5.2307692307692277E-2</v>
+      </c>
+      <c r="F15" s="12">
+        <v>26000</v>
+      </c>
+      <c r="G15" s="12">
+        <v>24640</v>
       </c>
       <c r="H15" s="12">
-        <v>100</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="O15" s="14">
-        <v>20990</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="11">
-        <v>14</v>
-      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="11"/>
       <c r="C16" s="12" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="E16" s="18">
-        <f>(F16-G16)/G16</f>
-        <v>5.106382978723404E-2</v>
-      </c>
-      <c r="F16" s="13">
-        <v>24700</v>
-      </c>
-      <c r="G16" s="13">
-        <v>23500</v>
+        <f t="shared" si="1"/>
+        <v>5.2910052910052907E-2</v>
+      </c>
+      <c r="F16" s="12">
+        <v>37800</v>
+      </c>
+      <c r="G16" s="12">
+        <v>35800</v>
       </c>
       <c r="H16" s="12">
         <v>50</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>103</v>
-      </c>
+      <c r="I16" s="12"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="O16" s="14">
-        <v>23990</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="11">
-        <v>15</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="18">
-        <f>(1-(G17/F17))</f>
-        <v>5.2044609665427455E-2</v>
-      </c>
-      <c r="F17" s="13">
-        <v>26900</v>
-      </c>
-      <c r="G17" s="13">
-        <v>25500</v>
-      </c>
-      <c r="H17" s="12">
-        <v>20</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="O17" s="14">
-        <v>25720</v>
-      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
     </row>
     <row r="18" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E18" s="18">
-        <f t="shared" ref="E17:E22" si="0">(F18-G18)/G18</f>
-        <v>5.4913294797687862E-2</v>
-      </c>
-      <c r="F18" s="13">
-        <v>36500</v>
-      </c>
-      <c r="G18" s="13">
-        <v>34600</v>
+        <f t="shared" si="1"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="F18" s="12">
+        <v>12000</v>
+      </c>
+      <c r="G18" s="12">
+        <v>11400</v>
       </c>
       <c r="H18" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="J18" s="12"/>
-      <c r="K18" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>120</v>
-      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
       <c r="M18" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O18" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="N18" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="O18" s="14">
-        <v>34780</v>
-      </c>
     </row>
     <row r="19" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11">
-        <v>17</v>
-      </c>
+      <c r="B19" s="11"/>
       <c r="C19" s="12" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E19" s="18">
-        <f t="shared" si="0"/>
-        <v>5.9360730593607303E-2</v>
-      </c>
-      <c r="F19" s="13">
-        <v>23200</v>
-      </c>
-      <c r="G19" s="13">
-        <v>21900</v>
+        <f t="shared" si="1"/>
+        <v>5.2132701421800931E-2</v>
+      </c>
+      <c r="F19" s="12">
+        <v>21100</v>
+      </c>
+      <c r="G19" s="12">
+        <v>20000</v>
       </c>
       <c r="H19" s="12">
         <v>50</v>
       </c>
-      <c r="I19" s="12" t="s">
-        <v>103</v>
-      </c>
+      <c r="I19" s="12"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="M19" s="12" t="s">
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="18">
+        <f t="shared" si="1"/>
+        <v>5.2542372881355881E-2</v>
+      </c>
+      <c r="F20" s="12">
+        <v>29500</v>
+      </c>
+      <c r="G20" s="12">
+        <v>27950</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+    </row>
+    <row r="21" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="11"/>
+      <c r="C21" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="18">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="F21" s="12">
+        <v>42000</v>
+      </c>
+      <c r="G21" s="12">
+        <v>39900</v>
+      </c>
+      <c r="H21" s="12">
+        <v>50</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="11">
+        <v>5</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="18">
+        <f t="shared" si="1"/>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="F23" s="12">
+        <v>12600</v>
+      </c>
+      <c r="G23" s="12">
+        <v>11900</v>
+      </c>
+      <c r="H23" s="12">
+        <v>50</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O23" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="N19" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="O19" s="14">
-        <v>21990</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11">
-        <v>18</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="18">
-        <f t="shared" si="0"/>
-        <v>5.3061224489795916E-2</v>
-      </c>
-      <c r="F20" s="13">
-        <v>25800</v>
-      </c>
-      <c r="G20" s="13">
-        <v>24500</v>
-      </c>
-      <c r="H20" s="12">
+    </row>
+    <row r="24" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="11"/>
+      <c r="C24" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="18">
+        <f t="shared" si="1"/>
+        <v>5.4545454545454564E-2</v>
+      </c>
+      <c r="F24" s="12">
+        <v>22000</v>
+      </c>
+      <c r="G24" s="12">
+        <v>20800</v>
+      </c>
+      <c r="H24" s="12">
         <v>50</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="O20" s="14">
-        <v>24980</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="11">
-        <v>19</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="18">
-        <f t="shared" si="0"/>
-        <v>5.2830188679245285E-2</v>
-      </c>
-      <c r="F21" s="13">
-        <v>27900</v>
-      </c>
-      <c r="G21" s="13">
-        <v>26500</v>
-      </c>
-      <c r="H21" s="12">
-        <v>20</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="O21" s="14">
-        <v>26800</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="11">
-        <v>20</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="18">
-        <f t="shared" si="0"/>
-        <v>5.3221288515406161E-2</v>
-      </c>
-      <c r="F22" s="13">
-        <v>37600</v>
-      </c>
-      <c r="G22" s="13">
-        <v>35700</v>
-      </c>
-      <c r="H22" s="12">
-        <v>20</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="N22" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="O22" s="14">
-        <v>35990</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+    </row>
+    <row r="25" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="11"/>
+      <c r="C25" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="18">
+        <f t="shared" si="1"/>
+        <v>5.0666666666666638E-2</v>
+      </c>
+      <c r="F25" s="12">
+        <v>30000</v>
+      </c>
+      <c r="G25" s="12">
+        <v>28480</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="18">
+        <f t="shared" si="1"/>
+        <v>5.6818181818181768E-2</v>
+      </c>
+      <c r="F26" s="12">
+        <v>44000</v>
+      </c>
+      <c r="G26" s="12">
+        <v>41500</v>
+      </c>
+      <c r="H26" s="12">
+        <v>50</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
@@ -1907,51 +1884,112 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="B28" s="3">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="17">
+        <f t="shared" si="1"/>
+        <v>5.4945054945054972E-2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>9100</v>
+      </c>
+      <c r="G28" s="1">
+        <v>8600</v>
+      </c>
+      <c r="H28" s="1">
+        <v>50</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="M28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="17">
+        <f t="shared" si="1"/>
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>14800</v>
+      </c>
+      <c r="G29" s="1">
+        <v>14000</v>
+      </c>
+      <c r="H29" s="1">
+        <v>50</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="M29" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="17">
+        <f t="shared" si="1"/>
+        <v>5.084745762711862E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>29500</v>
+      </c>
+      <c r="G30" s="1">
+        <v>28000</v>
+      </c>
+      <c r="H30" s="1">
+        <v>50</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="M30" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
@@ -1967,51 +2005,965 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="3"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="3"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="11">
+        <v>7</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="18">
+        <f t="shared" ref="E32:E35" si="2">1-(G32/F32)</f>
+        <v>5.3030303030302983E-2</v>
+      </c>
+      <c r="F32" s="12">
+        <v>26400</v>
+      </c>
+      <c r="G32" s="12">
+        <v>25000</v>
+      </c>
+      <c r="H32" s="12">
+        <v>50</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O32" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="11"/>
+      <c r="C33" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="18">
+        <f t="shared" si="2"/>
+        <v>5.4421768707482943E-2</v>
+      </c>
+      <c r="F33" s="12">
+        <v>29400</v>
+      </c>
+      <c r="G33" s="12">
+        <v>27800</v>
+      </c>
+      <c r="H33" s="12">
+        <v>50</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+    </row>
+    <row r="34" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="11"/>
+      <c r="C34" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" s="18">
+        <f t="shared" si="2"/>
+        <v>5.5384615384615365E-2</v>
+      </c>
+      <c r="F34" s="12">
+        <v>32500</v>
+      </c>
+      <c r="G34" s="12">
+        <v>30700</v>
+      </c>
+      <c r="H34" s="12">
+        <v>50</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+    </row>
+    <row r="35" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="11">
+        <v>8</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="18">
+        <f t="shared" si="2"/>
+        <v>5.633802816901412E-2</v>
+      </c>
+      <c r="F35" s="12">
+        <v>35500</v>
+      </c>
+      <c r="G35" s="12">
+        <v>33500</v>
+      </c>
+      <c r="H35" s="12">
+        <v>50</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O35" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B37" s="3">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1">
+        <v>100</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B38" s="3">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B39" s="3"/>
+      <c r="C39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B40" s="3"/>
+      <c r="C40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B41" s="3"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="11">
+        <v>11</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="18">
+        <f>1-(G42/F42)</f>
+        <v>5.2631578947368474E-2</v>
+      </c>
+      <c r="F42" s="12">
+        <v>9500</v>
+      </c>
+      <c r="G42" s="12">
+        <v>9000</v>
+      </c>
+      <c r="H42" s="12">
+        <v>50</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O42" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="11">
+        <v>12</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="18">
+        <f t="shared" ref="E43:E44" si="3">1-(G43/F43)</f>
+        <v>5.0632911392405111E-2</v>
+      </c>
+      <c r="F43" s="12">
+        <v>15800</v>
+      </c>
+      <c r="G43" s="12">
+        <v>15000</v>
+      </c>
+      <c r="H43" s="12">
+        <v>50</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O43" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q43" s="12"/>
+    </row>
+    <row r="44" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="11"/>
+      <c r="C44" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="18">
+        <f t="shared" si="3"/>
+        <v>5.2863436123347984E-2</v>
+      </c>
+      <c r="F44" s="12">
+        <v>22700</v>
+      </c>
+      <c r="G44" s="12">
+        <v>21500</v>
+      </c>
+      <c r="H44" s="12">
+        <v>50</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="Q44" s="12"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B45" s="3"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="11">
+        <v>13</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="18">
+        <f>1-(G46/F46)</f>
+        <v>4.5909090909090899E-2</v>
+      </c>
+      <c r="F46" s="13">
+        <v>22000</v>
+      </c>
+      <c r="G46" s="13">
+        <v>20990</v>
+      </c>
+      <c r="H46" s="12">
+        <v>100</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L46" s="12"/>
+      <c r="M46" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O46" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P46" s="14">
+        <v>20990</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="11">
+        <v>14</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="18">
+        <f t="shared" ref="E47:E53" si="4">1-(G47/F47)</f>
+        <v>4.8582995951417018E-2</v>
+      </c>
+      <c r="F47" s="13">
+        <v>24700</v>
+      </c>
+      <c r="G47" s="13">
+        <v>23500</v>
+      </c>
+      <c r="H47" s="12">
+        <v>50</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L47" s="12"/>
+      <c r="M47" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="N47" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O47" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P47" s="14">
+        <v>23990</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="11">
+        <v>15</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="18">
+        <f t="shared" si="4"/>
+        <v>5.1282051282051322E-2</v>
+      </c>
+      <c r="F48" s="13">
+        <v>27300</v>
+      </c>
+      <c r="G48" s="13">
+        <v>25900</v>
+      </c>
+      <c r="H48" s="12">
+        <v>20</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L48" s="12"/>
+      <c r="M48" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O48" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P48" s="14">
+        <v>25720</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="11">
+        <v>16</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="18">
+        <f t="shared" si="4"/>
+        <v>4.8913043478260865E-2</v>
+      </c>
+      <c r="F49" s="13">
+        <v>36800</v>
+      </c>
+      <c r="G49" s="13">
+        <v>35000</v>
+      </c>
+      <c r="H49" s="12">
+        <v>20</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L49" s="12"/>
+      <c r="M49" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O49" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P49" s="14">
+        <v>34780</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="11">
+        <v>17</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="18">
+        <f t="shared" si="4"/>
+        <v>5.6034482758620663E-2</v>
+      </c>
+      <c r="F50" s="13">
+        <v>23200</v>
+      </c>
+      <c r="G50" s="13">
+        <v>21900</v>
+      </c>
+      <c r="H50" s="12">
+        <v>50</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L50" s="12"/>
+      <c r="M50" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="N50" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O50" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P50" s="14">
+        <v>21990</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="11">
+        <v>18</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="18">
+        <f t="shared" si="4"/>
+        <v>5.0387596899224785E-2</v>
+      </c>
+      <c r="F51" s="13">
+        <v>25800</v>
+      </c>
+      <c r="G51" s="13">
+        <v>24500</v>
+      </c>
+      <c r="H51" s="12">
+        <v>50</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L51" s="12"/>
+      <c r="M51" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O51" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P51" s="14">
+        <v>24980</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="11">
+        <v>19</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="18">
+        <f t="shared" si="4"/>
+        <v>4.9469964664310973E-2</v>
+      </c>
+      <c r="F52" s="13">
+        <v>28300</v>
+      </c>
+      <c r="G52" s="13">
+        <v>26900</v>
+      </c>
+      <c r="H52" s="12">
+        <v>20</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L52" s="12"/>
+      <c r="M52" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="N52" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O52" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P52" s="14">
+        <v>26800</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="11">
+        <v>20</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="18">
+        <f t="shared" si="4"/>
+        <v>4.7619047619047672E-2</v>
+      </c>
+      <c r="F53" s="13">
+        <v>37800</v>
+      </c>
+      <c r="G53" s="13">
+        <v>36000</v>
+      </c>
+      <c r="H53" s="12">
+        <v>20</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L53" s="12"/>
+      <c r="M53" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="N53" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O53" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P53" s="14">
+        <v>35990</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B54" s="3"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B55" s="3"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B56" s="3"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B57" s="3"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B58" s="3"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B59" s="3"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B60" s="3"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B61" s="3"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B62" s="3"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B63" s="3"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B64" s="3"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B65" s="3"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2025,7 +2977,7 @@
   <dimension ref="B2:P53"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2064,7 +3016,7 @@
         <v>74</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>0</v>
@@ -2082,7 +3034,7 @@
         <v>74</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
@@ -2117,7 +3069,7 @@
         <v>5</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
@@ -2175,7 +3127,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K5" s="4">
         <v>10</v>
@@ -2185,6 +3137,12 @@
       </c>
       <c r="N5" s="5">
         <v>935</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
@@ -2218,6 +3176,12 @@
       <c r="N6" s="5">
         <v>2011</v>
       </c>
+      <c r="O6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
@@ -2271,7 +3235,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K8" s="4">
         <v>10</v>
@@ -2309,7 +3273,7 @@
         <v>7</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K9" s="4">
         <v>9</v>
@@ -2379,7 +3343,7 @@
         <v>9</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K11" s="4">
         <v>11</v>
@@ -2607,7 +3571,7 @@
         <v>16</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K18" s="4">
         <v>12</v>
@@ -2703,7 +3667,7 @@
         <v>19</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K21" s="4">
         <v>12</v>
@@ -2735,7 +3699,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K22" s="4">
         <v>12</v>
@@ -2767,7 +3731,7 @@
         <v>21</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K23" s="4">
         <v>12</v>
@@ -2863,7 +3827,7 @@
         <v>24</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K26" s="4">
         <v>9</v>
@@ -2898,7 +3862,7 @@
         <v>25</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K27" s="4">
         <v>11</v>
@@ -2930,7 +3894,7 @@
         <v>26</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K28" s="4">
         <v>11</v>
@@ -2962,7 +3926,7 @@
         <v>27</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K29" s="4">
         <v>11</v>
@@ -2997,7 +3961,7 @@
         <v>28</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K30" s="4">
         <v>11</v>
@@ -3160,7 +4124,7 @@
         <v>33</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K35" s="4">
         <v>12</v>
@@ -3474,9 +4438,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J3:N38">
-    <sortCondition ref="N3:N38"/>
-    <sortCondition descending="1" ref="L3:L38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:G40">
+    <sortCondition ref="G3:G40"/>
+    <sortCondition descending="1" ref="D3:D40"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/20210119_coupang_change.xlsx
+++ b/document/20210119_coupang_change.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C2EABF-57BD-4C51-8197-27B7B300E33B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61520F84-7E76-4E13-9D7F-390DE3CF6F0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2490" windowWidth="21840" windowHeight="13140" xr2:uid="{0957EC28-713C-4391-AB94-6CCD9C993B03}"/>
+    <workbookView xWindow="33555" yWindow="4710" windowWidth="21600" windowHeight="11385" xr2:uid="{0957EC28-713C-4391-AB94-6CCD9C993B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1066,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECB5EFF-7CFE-401E-9022-A76867444D8F}">
   <dimension ref="B1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/document/20210119_coupang_change.xlsx
+++ b/document/20210119_coupang_change.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61520F84-7E76-4E13-9D7F-390DE3CF6F0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD82EC0-1C36-44A0-B39A-58DA5637E850}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33555" yWindow="4710" windowWidth="21600" windowHeight="11385" xr2:uid="{0957EC28-713C-4391-AB94-6CCD9C993B03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0957EC28-713C-4391-AB94-6CCD9C993B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1066,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECB5EFF-7CFE-401E-9022-A76867444D8F}">
   <dimension ref="B1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
